--- a/Gamemodes.xlsx
+++ b/Gamemodes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687332F9-8B41-4E83-8AB9-80C429B705F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0724A79B-22E5-488B-9D72-12EC1D299FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>UID</t>
   </si>
@@ -71,16 +71,25 @@
     <t>100-199</t>
   </si>
   <si>
-    <t>200-199</t>
-  </si>
-  <si>
-    <t>300-199</t>
-  </si>
-  <si>
-    <t>400-199</t>
-  </si>
-  <si>
-    <t>500-199</t>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>500-599</t>
+  </si>
+  <si>
+    <t>400-499</t>
+  </si>
+  <si>
+    <t>300-399</t>
+  </si>
+  <si>
+    <t>200-299</t>
   </si>
 </sst>
 </file>
@@ -459,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +484,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,8 +497,11 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -502,8 +514,11 @@
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -516,8 +531,11 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>200</v>
       </c>
@@ -528,10 +546,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>300</v>
       </c>
@@ -542,10 +563,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>400</v>
       </c>
@@ -556,10 +580,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>500</v>
       </c>
@@ -571,6 +598,9 @@
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Gamemodes.xlsx
+++ b/Gamemodes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0724A79B-22E5-488B-9D72-12EC1D299FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16B767B-7222-4DC2-B929-66FA67919D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>UID</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>200-299</t>
+  </si>
+  <si>
+    <t>Last Piece Standing</t>
+  </si>
+  <si>
+    <t>Chess played until the last piece</t>
+  </si>
+  <si>
+    <t>600-699</t>
   </si>
 </sst>
 </file>
@@ -468,11 +477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,6 +612,23 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>600</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gamemodes.xlsx
+++ b/Gamemodes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16B767B-7222-4DC2-B929-66FA67919D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35727686-F7F2-4A40-AA04-7B75A7E45997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>UID</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>600-699</t>
+  </si>
+  <si>
+    <t>Checkers</t>
+  </si>
+  <si>
+    <t>700-799</t>
   </si>
 </sst>
 </file>
@@ -477,11 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,6 +635,23 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>700</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gamemodes.xlsx
+++ b/Gamemodes.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35727686-F7F2-4A40-AA04-7B75A7E45997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88050EB2-2560-42F1-B9F2-3375452F4248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gamemodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>UID</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>700-799</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -483,11 +486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +502,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +518,11 @@
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -532,8 +538,11 @@
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -549,8 +558,11 @@
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>200</v>
       </c>
@@ -566,8 +578,11 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>300</v>
       </c>
@@ -583,8 +598,11 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>400</v>
       </c>
@@ -600,8 +618,11 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>500</v>
       </c>
@@ -615,10 +636,13 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>600</v>
       </c>
@@ -634,8 +658,11 @@
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>700</v>
       </c>
@@ -649,6 +676,9 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Gamemodes.xlsx
+++ b/Gamemodes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88050EB2-2560-42F1-B9F2-3375452F4248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D1FFB2-89EC-4347-98EC-C2D2285EA8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>UID</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>Viking Chess</t>
+  </si>
+  <si>
+    <t>800-899</t>
   </si>
 </sst>
 </file>
@@ -486,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,6 +688,26 @@
         <v>19</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>800</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
